--- a/results/Cartpole/T18/Rewards_DQN.xlsx
+++ b/results/Cartpole/T18/Rewards_DQN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_Projecten\Q-Learning\results\Cartpole\T18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Q-Learning\results\Cartpole\T18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33E9C07B-2F9F-47ED-84B4-050C35D3DB5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096165A8-21CE-46BF-8E73-7564803CC22F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rewards_DQN" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+  <si>
+    <t>Rewards</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,6 +619,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Rewards_DQN!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rewards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -640,7 +659,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Rewards_DQN!$A$1:$A$1050</c:f>
+              <c:f>Rewards_DQN!$A$2:$A$1051</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1050"/>
@@ -3843,7 +3862,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3901,7 +3920,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3928,6 +3947,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4527,13 +4577,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4858,5262 +4908,5267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1050"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A1051"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>70</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>61</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>107</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>72</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
         <v>122</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>107</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>84</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>82</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156">
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157">
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158">
         <v>121</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
         <v>165</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>167</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
         <v>442</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>499</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>499</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>499</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>499</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>499</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>499</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>499</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>499</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>499</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>499</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>499</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>499</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>499</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>499</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>499</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>499</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>499</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>499</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>499</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>499</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>499</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>499</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>499</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>499</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>499</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>499</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>499</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>499</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>499</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>499</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>499</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>499</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>499</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>499</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>499</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202">
         <v>32</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>499</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>499</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>499</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>499</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>499</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>499</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>499</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>499</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>499</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>499</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>499</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>499</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>499</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>499</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>499</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>499</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>499</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>499</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>499</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>499</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>499</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>499</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>499</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227">
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>499</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>499</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>499</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>499</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>499</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>499</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>499</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>499</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>499</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>499</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>499</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>499</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241">
         <v>336</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243">
         <v>449</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>499</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>499</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>499</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>499</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>499</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>499</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>499</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252">
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>499</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>499</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>499</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>499</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>499</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>499</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>499</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>499</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>499</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>499</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>499</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>499</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>499</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>499</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>499</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>499</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>499</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>499</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>499</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>499</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>499</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>499</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277">
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>499</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>499</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>499</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>499</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>499</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>499</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>499</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287">
         <v>456</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>499</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>499</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>499</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>499</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>499</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>499</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>499</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>499</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>499</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>499</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>499</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>499</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>499</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302">
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>499</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>499</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>499</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>499</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>499</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>499</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>499</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>499</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>499</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>499</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>499</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>499</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>499</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>499</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>499</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>499</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>499</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>499</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>499</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>499</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>499</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>499</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327">
         <v>34</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>499</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>499</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>499</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>499</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>499</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>499</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>499</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>499</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>499</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>499</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>499</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>499</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>499</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>499</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>499</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>499</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>499</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>499</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>499</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>499</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>499</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>499</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>499</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352">
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>499</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>499</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>499</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>499</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>499</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>499</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>499</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>499</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>499</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>499</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>499</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>499</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>499</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>499</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>499</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>499</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>499</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>499</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>499</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>499</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>499</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>499</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>499</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377">
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>499</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>499</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>499</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>499</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>499</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>499</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>499</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>499</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>499</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>499</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>499</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>499</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>499</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>499</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>499</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>499</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>499</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>499</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>499</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>499</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>499</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>499</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>499</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402">
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>499</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>499</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>499</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>499</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>499</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>499</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>499</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>499</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>499</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>499</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>499</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415">
         <v>123</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>499</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>499</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>499</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>499</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>499</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>499</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>499</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>499</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>499</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>499</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427">
         <v>19</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>499</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>499</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>499</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>499</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>499</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>499</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>499</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>499</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>499</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>499</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>499</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>499</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>499</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>499</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>499</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>499</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>499</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>499</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>499</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>499</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>499</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>499</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>499</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452">
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>499</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>499</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>499</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>499</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>499</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>499</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>499</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>499</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>499</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>499</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>499</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>499</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>499</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>499</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>499</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>499</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>499</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>499</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>499</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>499</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>499</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>499</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>499</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477">
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>499</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>499</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>499</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>499</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>499</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>499</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>499</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>499</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>499</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>499</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>499</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>499</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>499</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>499</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>499</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>499</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>499</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>499</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>499</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>499</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>499</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>499</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502">
         <v>24</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>499</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>499</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>499</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>499</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>499</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>499</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>499</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>499</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>499</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>499</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>499</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>499</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>499</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>499</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>499</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>499</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>499</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>499</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>499</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>499</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>499</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>499</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>499</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527">
         <v>32</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>499</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>499</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>499</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>499</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>499</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>499</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>499</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>499</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>499</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>499</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>499</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>499</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>499</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>499</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>499</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>499</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>499</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>499</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>499</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>499</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>499</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>499</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>499</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552">
         <v>28</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>499</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>499</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>499</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>499</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>499</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>499</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>499</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>499</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>499</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>499</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>499</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>499</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>499</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>499</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>499</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>499</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>499</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>499</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>499</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>499</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>499</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>499</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>499</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A577">
         <v>24</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>499</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>499</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>499</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>499</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>499</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>499</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>499</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>499</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>499</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>499</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>499</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>499</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>499</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>499</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>499</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>499</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>499</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>499</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>499</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>499</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>499</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>499</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>499</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A601">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A602">
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>499</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>499</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>499</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>499</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>499</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>499</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>499</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>499</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>499</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>499</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>499</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>499</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>499</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>499</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>499</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>499</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>499</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>499</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>499</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>499</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>499</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>499</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>499</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A626">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A627">
         <v>24</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>499</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>499</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>499</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>499</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>499</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>499</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>499</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>499</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>499</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>499</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>499</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>499</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>499</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>499</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>499</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>499</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>499</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>499</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>499</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>499</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>499</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>499</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>499</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A651">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A652">
         <v>14</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>499</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>499</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>499</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>499</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>499</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>499</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>499</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>499</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>499</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>499</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>499</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>499</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>499</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>499</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>499</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>499</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>499</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>499</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>499</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>499</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>499</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>499</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>499</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A676">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A677">
         <v>16</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>499</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>499</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>499</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>499</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>499</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>499</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>499</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>499</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>499</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>499</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>499</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>499</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>499</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>499</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>499</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>499</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>499</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>499</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>499</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>499</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>499</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>499</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>499</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A701">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A702">
         <v>53</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>499</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>499</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>499</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>499</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>499</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>499</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>499</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>499</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>499</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>499</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>499</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>499</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>499</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>499</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>499</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>499</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>499</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>499</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>499</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>499</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>499</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>499</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>499</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A726">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A727">
         <v>15</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>499</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>499</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>499</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>499</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>499</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>499</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>499</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>499</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>499</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>499</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>499</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>499</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>499</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>499</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>499</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>499</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>499</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>499</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>499</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>499</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>499</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>499</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>499</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A751">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A752">
         <v>23</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>499</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>499</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>499</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>499</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>499</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>499</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>499</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>499</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>499</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>499</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>499</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>499</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>499</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>499</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>499</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>499</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>499</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>499</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>499</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>499</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>499</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>499</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>499</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A776">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A777">
         <v>25</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>499</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>499</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>499</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>499</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>499</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>499</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>499</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>499</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>499</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>499</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>499</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>499</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>499</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>499</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>499</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>499</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>499</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>499</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>499</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>499</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>499</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>499</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>499</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A801">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A802">
         <v>25</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A802">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>499</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>499</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>499</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>499</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>499</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>499</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>499</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>499</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>499</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>499</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>499</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>499</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>499</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>499</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>499</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>499</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>499</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>499</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>499</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>499</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>499</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>499</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>499</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A826">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A827">
         <v>32</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>499</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>499</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>499</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>499</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>499</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>499</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>499</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>499</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>499</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>499</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>499</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>499</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>499</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>499</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>499</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>499</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>499</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>499</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>499</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>499</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>499</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>499</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>499</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A851">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A852">
         <v>12</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>499</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>499</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>499</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>499</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>499</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>499</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>499</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>499</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>499</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>499</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>499</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>499</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>499</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>499</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>499</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>499</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>499</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>499</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>499</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>499</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>499</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>499</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>499</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A876">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A877">
         <v>57</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>499</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>499</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>499</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>499</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>499</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>499</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>499</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>499</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>499</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>499</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>499</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>499</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>499</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>499</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>499</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>499</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>499</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>499</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>499</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>499</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>499</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>499</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>499</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A901">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A902">
         <v>13</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>499</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>499</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>499</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>499</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>499</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>499</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>499</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>499</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>499</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>499</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>499</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>499</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>499</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>499</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>499</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>499</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>499</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>499</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>499</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>499</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>499</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>499</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>499</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A926">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A927">
         <v>24</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>499</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>499</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>499</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>499</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>499</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>499</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>499</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>499</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>499</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>499</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>499</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>499</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>499</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>499</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>499</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>499</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>499</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>499</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>499</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>499</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>499</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>499</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>499</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A951">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A952">
         <v>34</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A952">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>499</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>499</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>499</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>499</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>499</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>499</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>499</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>499</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>499</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>499</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>499</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>499</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>499</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>499</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>499</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>499</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>499</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>499</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>499</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>499</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>499</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>499</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>499</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A976">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A977">
         <v>16</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A977">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>499</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>499</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>499</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>499</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>499</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>499</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>499</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>499</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>499</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>499</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>499</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>499</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>499</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A991">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A992">
         <v>454</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A992">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A993">
         <v>53</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A993">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>499</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>499</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>499</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>499</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>499</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>499</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>499</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1001">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1002">
         <v>12</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1002">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1003">
         <v>499</v>
       </c>
     </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1004">
         <v>499</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1005">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1006">
         <v>94</v>
       </c>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1006">
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1007">
         <v>28</v>
       </c>
     </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1007">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1008">
         <v>499</v>
       </c>
     </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1009">
         <v>499</v>
       </c>
     </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1010">
         <v>499</v>
       </c>
     </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1011">
         <v>499</v>
       </c>
     </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1012">
         <v>499</v>
       </c>
     </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1013">
         <v>499</v>
       </c>
     </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1014">
         <v>499</v>
       </c>
     </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1015">
         <v>499</v>
       </c>
     </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1016">
         <v>499</v>
       </c>
     </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1017">
         <v>499</v>
       </c>
     </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1018">
         <v>499</v>
       </c>
     </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1019">
         <v>499</v>
       </c>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1020">
         <v>499</v>
       </c>
     </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1021">
         <v>499</v>
       </c>
     </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1022">
         <v>499</v>
       </c>
     </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1023">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1024">
         <v>427</v>
       </c>
     </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1024">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1025">
         <v>499</v>
       </c>
     </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1026">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1027">
         <v>11</v>
       </c>
     </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1027">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1028">
         <v>499</v>
       </c>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1029">
         <v>499</v>
       </c>
     </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1030">
         <v>499</v>
       </c>
     </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1031">
         <v>499</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1032">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1033">
         <v>193</v>
       </c>
     </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1033">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1034">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1035">
         <v>347</v>
       </c>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1035">
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1036">
         <v>29</v>
       </c>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1036">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1037">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1038">
         <v>273</v>
       </c>
     </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1038">
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1039">
         <v>99</v>
       </c>
     </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1039">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1040">
         <v>499</v>
       </c>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1041">
         <v>499</v>
       </c>
     </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1042">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1043">
         <v>351</v>
       </c>
     </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1043">
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1044">
         <v>337</v>
       </c>
     </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1044">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1045">
         <v>499</v>
       </c>
     </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1046">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1047">
         <v>454</v>
       </c>
     </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1047">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1048">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1049">
         <v>277</v>
       </c>
     </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1049">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1050">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1051">
         <v>283</v>
       </c>
     </row>

--- a/results/Cartpole/T18/Rewards_DQN.xlsx
+++ b/results/Cartpole/T18/Rewards_DQN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Q-Learning\results\Cartpole\T18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_Projecten\Q-Learning\results\Cartpole\T18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096165A8-21CE-46BF-8E73-7564803CC22F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4820601-F87B-4E8B-8A46-A02B110CF2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Rewards</t>
   </si>
@@ -594,7 +594,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3862,7 +3862,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3920,7 +3920,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3962,7 +3962,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4002,7 +4002,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4911,5263 +4911,5263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1051"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>499</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>85</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>106</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>72</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>122</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>152</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>99</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>107</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>178</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>193</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>304</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>82</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>121</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>442</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>291</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>499</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>499</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>499</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>499</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>499</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>499</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>499</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>499</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>499</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>499</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>499</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>499</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>499</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>499</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>499</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>499</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>499</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>499</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>499</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>499</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>499</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>499</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>499</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>499</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>499</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>499</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>499</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>499</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>499</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>499</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>499</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>499</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>499</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>499</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>499</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>499</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>499</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>32</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>499</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>499</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>499</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>499</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>499</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>499</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>499</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>499</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>499</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>499</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>499</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>499</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>499</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>499</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>499</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>499</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>499</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>499</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>499</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>499</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>499</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>499</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>499</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>499</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>499</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>499</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>499</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>499</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>499</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>499</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>499</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>499</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>499</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>499</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>499</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>499</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>499</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>336</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>499</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>449</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>499</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>499</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>499</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>499</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>499</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>499</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>499</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>499</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>499</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>499</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>499</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>499</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>499</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>499</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>499</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>499</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>499</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>499</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>499</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>499</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>499</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>499</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>499</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>499</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>499</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>499</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>499</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>499</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>499</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>499</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>499</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>499</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>499</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>499</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>499</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>499</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>499</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>499</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>456</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>499</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>499</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>499</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>499</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>499</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>499</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>499</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>499</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>499</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>499</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>499</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>499</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>499</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>499</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>499</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>499</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>499</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>499</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>499</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>499</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>499</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>499</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>499</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>499</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>499</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>499</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>499</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>499</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>499</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>499</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>499</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>499</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>499</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>499</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>499</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>499</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>499</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>499</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>499</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>499</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>499</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>499</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>499</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>499</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>499</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>499</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>499</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>499</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>499</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>499</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>499</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>499</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>499</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>499</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>499</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>499</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>499</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>499</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>499</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>499</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>499</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>28</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>499</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>499</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>499</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>499</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>499</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>499</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>499</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>499</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>499</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>499</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>499</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>499</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>499</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>499</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>499</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>499</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>499</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>499</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>499</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>499</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>499</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>499</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>499</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>499</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>14</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>499</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>499</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>499</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>499</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>499</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>499</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>499</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>499</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>499</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>499</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>499</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>499</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>499</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>499</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>499</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>499</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>499</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>499</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>499</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>499</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>499</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>499</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>499</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>499</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>499</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>499</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>499</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>499</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>499</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>499</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>499</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>499</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>499</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>499</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>499</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>499</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>123</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>499</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>499</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>499</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>499</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>499</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>499</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>499</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>499</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>499</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>499</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>499</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>19</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>499</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>499</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>499</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>499</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>499</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>499</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>499</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>499</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>499</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>499</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>499</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>499</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>499</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>499</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>499</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>499</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>499</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>499</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>499</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>499</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>499</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>499</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>499</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>499</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>499</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>499</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>499</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>499</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>499</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>499</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>499</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>499</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>499</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>499</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>499</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>499</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>499</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>499</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>499</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>499</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>499</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>499</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>499</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>499</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>499</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>499</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>499</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>499</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>499</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>499</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>499</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>499</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>499</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>499</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>499</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>499</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>499</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>499</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>499</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>499</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>499</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>499</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>499</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>499</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>499</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>499</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>499</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>499</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>499</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>499</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>24</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>499</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>499</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>499</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>499</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>499</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>499</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>499</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>499</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>499</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>499</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>499</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>499</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>499</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>499</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>499</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>499</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>499</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>499</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>499</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>499</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>499</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>499</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>499</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>499</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>32</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>499</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>499</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>499</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>499</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>499</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>499</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>499</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>499</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>499</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>499</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>499</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>499</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>499</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>499</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>499</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>499</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>499</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>499</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>499</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>499</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>499</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>499</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>499</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>499</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>28</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>499</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>499</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>499</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>499</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>499</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>499</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>499</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>499</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>499</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>499</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>499</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>499</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>499</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>499</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>499</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>499</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>499</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>499</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>499</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>499</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>499</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>499</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>499</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>499</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>24</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>499</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>499</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>499</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>499</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>499</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>499</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>499</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>499</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>499</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>499</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>499</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>499</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>499</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>499</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>499</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>499</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>499</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>499</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>499</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>499</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>499</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>499</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>499</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>499</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>23</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>499</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>499</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>499</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>499</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>499</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>499</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>499</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>499</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>499</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>499</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>499</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>499</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>499</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>499</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>499</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>499</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>499</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>499</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>499</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>499</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>499</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>499</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>499</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>499</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>24</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>499</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>499</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>499</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>499</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>499</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>499</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>499</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>499</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>499</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>499</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>499</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>499</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>499</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>499</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>499</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>499</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>499</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>499</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>499</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>499</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>499</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>499</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>499</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>499</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>14</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>499</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>499</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>499</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>499</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>499</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>499</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>499</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>499</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>499</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>499</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>499</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>499</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>499</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>499</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>499</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>499</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>499</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>499</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>499</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>499</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>499</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>499</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>499</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>499</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>16</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>499</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>499</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>499</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>499</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>499</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>499</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>499</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>499</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>499</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>499</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>499</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>499</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>499</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>499</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>499</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>499</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>499</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>499</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>499</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>499</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>499</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>499</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>499</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>499</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>53</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>499</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>499</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>499</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>499</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>499</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>499</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>499</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>499</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>499</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>499</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>499</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>499</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>499</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>499</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>499</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>499</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>499</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>499</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>499</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>499</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>499</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>499</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>499</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>499</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>15</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>499</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>499</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>499</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>499</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>499</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>499</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>499</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>499</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>499</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>499</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>499</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>499</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>499</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>499</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>499</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>499</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>499</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>499</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>499</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>499</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>499</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>499</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>499</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>499</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>23</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>499</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>499</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>499</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>499</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>499</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>499</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>499</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>499</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>499</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>499</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>499</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>499</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>499</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>499</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>499</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>499</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>499</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>499</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>499</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>499</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>499</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>499</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>499</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>499</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>25</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>499</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>499</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>499</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>499</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>499</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>499</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>499</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>499</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>499</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>499</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>499</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>499</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>499</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>499</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>499</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>499</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>499</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>499</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>499</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>499</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>499</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>499</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>499</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>499</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>25</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>499</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>499</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>499</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>499</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>499</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>499</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>499</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>499</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>499</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>499</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>499</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>499</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>499</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>499</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>499</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>499</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>499</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>499</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>499</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>499</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>499</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>499</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>499</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>499</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>32</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>499</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>499</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>499</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>499</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>499</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>499</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>499</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>499</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>499</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>499</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>499</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>499</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>499</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>499</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>499</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>499</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>499</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>499</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>499</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>499</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>499</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>499</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>499</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>499</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>12</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>499</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>499</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>499</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>499</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>499</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>499</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>499</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>499</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>499</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>499</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>499</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>499</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>499</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>499</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>499</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>499</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>499</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>499</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>499</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>499</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>499</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>499</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>499</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>499</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>57</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>499</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>499</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>499</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>499</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>499</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>499</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>499</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>499</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>499</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>499</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>499</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>499</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>499</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>499</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>499</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>499</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>499</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>499</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>499</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>499</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>499</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>499</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>499</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>499</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>13</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>499</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>499</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>499</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>499</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>499</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>499</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>499</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>499</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>499</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>499</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>499</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>499</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>499</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>499</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>499</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>499</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>499</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>499</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>499</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>499</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>499</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>499</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>499</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>499</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>24</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>499</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>499</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>499</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>499</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>499</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>499</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>499</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>499</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>499</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>499</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>499</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>499</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>499</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>499</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>499</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>499</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>499</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>499</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>499</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>499</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>499</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>499</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>499</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>499</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>34</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>499</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>499</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>499</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>499</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>499</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>499</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>499</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>499</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>499</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>499</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>499</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>499</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>499</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>499</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>499</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>499</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>499</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>499</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>499</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>499</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>499</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>499</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>499</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>499</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>16</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>499</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>499</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>499</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>499</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>499</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>499</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>499</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>499</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>499</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>499</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>499</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>499</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>499</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>499</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>454</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>53</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>499</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>499</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>499</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>499</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>499</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>499</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>499</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>499</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002">
         <v>12</v>
       </c>
     </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>499</v>
       </c>
     </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004">
         <v>499</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005">
         <v>499</v>
       </c>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006">
         <v>94</v>
       </c>
     </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007">
         <v>28</v>
       </c>
     </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008">
         <v>499</v>
       </c>
     </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009">
         <v>499</v>
       </c>
     </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010">
         <v>499</v>
       </c>
     </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1011">
         <v>499</v>
       </c>
     </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1012">
         <v>499</v>
       </c>
     </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013">
         <v>499</v>
       </c>
     </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1014">
         <v>499</v>
       </c>
     </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015">
         <v>499</v>
       </c>
     </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016">
         <v>499</v>
       </c>
     </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017">
         <v>499</v>
       </c>
     </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018">
         <v>499</v>
       </c>
     </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019">
         <v>499</v>
       </c>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020">
         <v>499</v>
       </c>
     </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021">
         <v>499</v>
       </c>
     </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022">
         <v>499</v>
       </c>
     </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023">
         <v>499</v>
       </c>
     </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024">
         <v>427</v>
       </c>
     </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025">
         <v>499</v>
       </c>
     </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026">
         <v>499</v>
       </c>
     </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027">
         <v>11</v>
       </c>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028">
         <v>499</v>
       </c>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029">
         <v>499</v>
       </c>
     </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030">
         <v>499</v>
       </c>
     </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031">
         <v>499</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032">
         <v>499</v>
       </c>
     </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033">
         <v>193</v>
       </c>
     </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034">
         <v>499</v>
       </c>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035">
         <v>347</v>
       </c>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036">
         <v>29</v>
       </c>
     </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037">
         <v>499</v>
       </c>
     </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038">
         <v>273</v>
       </c>
     </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039">
         <v>99</v>
       </c>
     </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040">
         <v>499</v>
       </c>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041">
         <v>499</v>
       </c>
     </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042">
         <v>499</v>
       </c>
     </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043">
         <v>351</v>
       </c>
     </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044">
         <v>337</v>
       </c>
     </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045">
         <v>499</v>
       </c>
     </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046">
         <v>499</v>
       </c>
     </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047">
         <v>454</v>
       </c>
     </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048">
         <v>499</v>
       </c>
     </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049">
         <v>277</v>
       </c>
     </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050">
         <v>499</v>
       </c>
     </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051">
         <v>283</v>
       </c>
